--- a/VT_1.7_sphericity_heavens_clusters.xlsx
+++ b/VT_1.7_sphericity_heavens_clusters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nogas\Image_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C08C91-3F2C-43A0-A621-FDA4624A673D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0AD2BB-C5A4-4E7E-8220-DF4FA2E009D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="-15825" windowWidth="14445" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="138">
   <si>
     <t>cluster_name</t>
   </si>
@@ -431,6 +431,9 @@
   </si>
   <si>
     <t>multiple moments in one no</t>
+  </si>
+  <si>
+    <t>ad absurdum</t>
   </si>
 </sst>
 </file>
@@ -515,7 +518,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,10 +543,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{97F1B61A-D37A-424E-9140-3352EEE5FD8F}" name="Table1" displayName="Table1" ref="A1:M1048575" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:M1048575" xr:uid="{97F1B61A-D37A-424E-9140-3352EEE5FD8F}"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{97F1B61A-D37A-424E-9140-3352EEE5FD8F}" name="Table1" displayName="Table1" ref="A1:N1048575" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:N1048575" xr:uid="{97F1B61A-D37A-424E-9140-3352EEE5FD8F}"/>
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{A1E2B027-5A48-4C92-A404-199028ABADA0}" name="cluster_name"/>
+    <tableColumn id="15" xr3:uid="{E4642256-B593-4F60-A52A-F5A331C7ABC4}" name="ad absurdum"/>
     <tableColumn id="2" xr3:uid="{3183C03C-63CF-45C6-ADC1-D6EDB92D39B5}" name="diagram"/>
     <tableColumn id="3" xr3:uid="{148207AB-644E-47A1-B31B-E1097A20C8AE}" name="color"/>
     <tableColumn id="4" xr3:uid="{716D81D6-2F92-4401-897F-E985A1334713}" name="human figure"/>
@@ -844,71 +850,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P273"/>
+  <dimension ref="A1:P123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:M1"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="22.36328125" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" customWidth="1"/>
-    <col min="4" max="4" width="8.08984375" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" customWidth="1"/>
-    <col min="8" max="8" width="25.453125" customWidth="1"/>
-    <col min="9" max="9" width="15.81640625" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" customWidth="1"/>
-    <col min="11" max="11" width="10.08984375" customWidth="1"/>
-    <col min="12" max="12" width="7.1796875" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" customWidth="1"/>
+    <col min="5" max="5" width="8.08984375" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" customWidth="1"/>
+    <col min="8" max="8" width="10.54296875" customWidth="1"/>
+    <col min="9" max="9" width="25.453125" customWidth="1"/>
+    <col min="10" max="10" width="15.81640625" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" customWidth="1"/>
+    <col min="12" max="12" width="10.08984375" customWidth="1"/>
+    <col min="13" max="13" width="7.1796875" customWidth="1"/>
+    <col min="14" max="14" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="72.5">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="72.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -916,10 +926,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -948,13 +958,16 @@
       <c r="M2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -963,13 +976,13 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
         <v>3</v>
@@ -984,13 +997,16 @@
         <v>3</v>
       </c>
       <c r="L3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1010,10 +1026,10 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I4" t="s">
         <v>3</v>
@@ -1030,19 +1046,22 @@
       <c r="M4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
@@ -1066,21 +1085,24 @@
         <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -1092,10 +1114,10 @@
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I6" t="s">
         <v>3</v>
@@ -1112,8 +1134,11 @@
       <c r="M6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1133,10 +1158,10 @@
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I7" t="s">
         <v>3</v>
@@ -1153,8 +1178,11 @@
       <c r="M7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1174,10 +1202,10 @@
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I8" t="s">
         <v>3</v>
@@ -1194,19 +1222,22 @@
       <c r="M8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
@@ -1215,7 +1246,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H9" t="s">
         <v>3</v>
@@ -1230,13 +1261,16 @@
         <v>3</v>
       </c>
       <c r="L9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1244,16 +1278,16 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G10" t="s">
         <v>3</v>
@@ -1276,13 +1310,16 @@
       <c r="M10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
@@ -1294,10 +1331,10 @@
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H11" t="s">
         <v>3</v>
@@ -1312,13 +1349,16 @@
         <v>3</v>
       </c>
       <c r="L11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1326,10 +1366,10 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
         <v>3</v>
@@ -1341,25 +1381,28 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J12" t="s">
         <v>3</v>
       </c>
       <c r="K12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L12" t="s">
         <v>5</v>
       </c>
       <c r="M12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1379,10 +1422,10 @@
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I13" t="s">
         <v>3</v>
@@ -1399,16 +1442,19 @@
       <c r="M13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
@@ -1440,8 +1486,11 @@
       <c r="M14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1461,10 +1510,10 @@
         <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I15" t="s">
         <v>3</v>
@@ -1481,13 +1530,16 @@
       <c r="M15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -1522,16 +1574,19 @@
       <c r="M16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
@@ -1543,10 +1598,10 @@
         <v>3</v>
       </c>
       <c r="G17" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I17" t="s">
         <v>3</v>
@@ -1563,16 +1618,19 @@
       <c r="M17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
@@ -1604,16 +1662,19 @@
       <c r="M18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
@@ -1645,8 +1706,11 @@
       <c r="M19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1660,10 +1724,10 @@
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G20" t="s">
         <v>3</v>
@@ -1686,8 +1750,11 @@
       <c r="M20" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1707,10 +1774,10 @@
         <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I21" t="s">
         <v>3</v>
@@ -1727,8 +1794,11 @@
       <c r="M21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1736,22 +1806,22 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G22" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H22" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I22" t="s">
         <v>3</v>
@@ -1768,8 +1838,11 @@
       <c r="M22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -1789,10 +1862,10 @@
         <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I23" t="s">
         <v>3</v>
@@ -1809,8 +1882,11 @@
       <c r="M23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1827,10 +1903,10 @@
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H24" t="s">
         <v>3</v>
@@ -1839,39 +1915,42 @@
         <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K24" t="s">
         <v>5</v>
       </c>
       <c r="L24" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H25" t="s">
         <v>3</v>
@@ -1883,16 +1962,19 @@
         <v>3</v>
       </c>
       <c r="K25" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L25" t="s">
         <v>5</v>
       </c>
       <c r="M25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1900,7 +1982,7 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
@@ -1912,10 +1994,10 @@
         <v>5</v>
       </c>
       <c r="G26" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H26" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I26" t="s">
         <v>5</v>
@@ -1932,8 +2014,11 @@
       <c r="M26" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -1953,10 +2038,10 @@
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I27" t="s">
         <v>3</v>
@@ -1973,16 +2058,19 @@
       <c r="M27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
@@ -1994,10 +2082,10 @@
         <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I28" t="s">
         <v>3</v>
@@ -2014,13 +2102,16 @@
       <c r="M28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>3</v>
@@ -2029,19 +2120,19 @@
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G29" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H29" t="s">
         <v>5</v>
       </c>
       <c r="I29" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J29" t="s">
         <v>3</v>
@@ -2050,21 +2141,24 @@
         <v>3</v>
       </c>
       <c r="L29" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M29" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
@@ -2076,10 +2170,10 @@
         <v>5</v>
       </c>
       <c r="G30" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H30" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I30" t="s">
         <v>5</v>
@@ -2096,25 +2190,28 @@
       <c r="M30" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="s">
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G31" t="s">
         <v>3</v>
@@ -2129,21 +2226,24 @@
         <v>3</v>
       </c>
       <c r="K31" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L31" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M31" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>3</v>
@@ -2178,31 +2278,34 @@
       <c r="M32" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F33" t="s">
         <v>3</v>
       </c>
       <c r="G33" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H33" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I33" t="s">
         <v>3</v>
@@ -2214,13 +2317,16 @@
         <v>3</v>
       </c>
       <c r="L33" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -2228,7 +2334,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
@@ -2240,10 +2346,10 @@
         <v>5</v>
       </c>
       <c r="G34" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H34" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I34" t="s">
         <v>5</v>
@@ -2252,16 +2358,19 @@
         <v>5</v>
       </c>
       <c r="K34" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L34" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M34" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -2269,7 +2378,7 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
@@ -2281,10 +2390,10 @@
         <v>5</v>
       </c>
       <c r="G35" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H35" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I35" t="s">
         <v>5</v>
@@ -2301,31 +2410,34 @@
       <c r="M35" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F36" t="s">
         <v>3</v>
       </c>
       <c r="G36" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H36" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I36" t="s">
         <v>3</v>
@@ -2334,16 +2446,19 @@
         <v>3</v>
       </c>
       <c r="K36" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L36" t="s">
         <v>5</v>
       </c>
       <c r="M36" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2357,16 +2472,16 @@
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F37" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G37" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H37" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I37" t="s">
         <v>3</v>
@@ -2383,8 +2498,11 @@
       <c r="M37" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2404,10 +2522,10 @@
         <v>3</v>
       </c>
       <c r="G38" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H38" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I38" t="s">
         <v>3</v>
@@ -2424,8 +2542,11 @@
       <c r="M38" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2433,16 +2554,16 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F39" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G39" t="s">
         <v>3</v>
@@ -2465,8 +2586,11 @@
       <c r="M39" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -2480,10 +2604,10 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F40" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G40" t="s">
         <v>3</v>
@@ -2498,16 +2622,19 @@
         <v>3</v>
       </c>
       <c r="K40" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L40" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M40" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -2521,34 +2648,37 @@
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F41" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G41" t="s">
         <v>3</v>
       </c>
       <c r="H41" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I41" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J41" t="s">
         <v>3</v>
       </c>
       <c r="K41" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L41" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M41" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -2562,16 +2692,16 @@
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F42" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G42" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H42" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I42" t="s">
         <v>3</v>
@@ -2588,8 +2718,11 @@
       <c r="M42" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -2609,10 +2742,10 @@
         <v>3</v>
       </c>
       <c r="G43" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H43" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I43" t="s">
         <v>3</v>
@@ -2629,8 +2762,11 @@
       <c r="M43" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -2650,10 +2786,10 @@
         <v>3</v>
       </c>
       <c r="G44" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H44" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I44" t="s">
         <v>3</v>
@@ -2662,27 +2798,30 @@
         <v>3</v>
       </c>
       <c r="K44" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L44" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M44" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
         <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E45" t="s">
         <v>3</v>
@@ -2711,31 +2850,34 @@
       <c r="M45" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
         <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F46" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G46" t="s">
         <v>5</v>
       </c>
       <c r="H46" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I46" t="s">
         <v>3</v>
@@ -2744,16 +2886,19 @@
         <v>3</v>
       </c>
       <c r="K46" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L46" t="s">
         <v>5</v>
       </c>
       <c r="M46" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -2764,28 +2909,28 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G47" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H47" t="s">
         <v>3</v>
       </c>
       <c r="I47" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K47" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L47" t="s">
         <v>5</v>
@@ -2793,8 +2938,11 @@
       <c r="M47" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="N47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -2811,31 +2959,34 @@
         <v>3</v>
       </c>
       <c r="F48" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G48" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H48" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I48" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J48" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K48" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L48" t="s">
         <v>3</v>
       </c>
       <c r="M48" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -2855,10 +3006,10 @@
         <v>3</v>
       </c>
       <c r="G49" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H49" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I49" t="s">
         <v>3</v>
@@ -2867,16 +3018,19 @@
         <v>3</v>
       </c>
       <c r="K49" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L49" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M49" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2896,10 +3050,10 @@
         <v>3</v>
       </c>
       <c r="G50" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H50" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I50" t="s">
         <v>3</v>
@@ -2916,16 +3070,19 @@
       <c r="M50" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="N50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
         <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="s">
         <v>3</v>
@@ -2957,8 +3114,11 @@
       <c r="M51" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="N51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -2978,10 +3138,10 @@
         <v>3</v>
       </c>
       <c r="G52" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H52" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I52" t="s">
         <v>3</v>
@@ -2990,33 +3150,36 @@
         <v>3</v>
       </c>
       <c r="K52" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L52" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M52" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
         <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="s">
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F53" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G53" t="s">
         <v>3</v>
@@ -3039,13 +3202,16 @@
       <c r="M53" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
         <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
         <v>3</v>
@@ -3080,8 +3246,11 @@
       <c r="M54" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="N54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -3101,10 +3270,10 @@
         <v>3</v>
       </c>
       <c r="G55" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I55" t="s">
         <v>3</v>
@@ -3121,8 +3290,11 @@
       <c r="M55" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="N55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -3162,8 +3334,11 @@
       <c r="M56" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="N56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -3177,10 +3352,10 @@
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F57" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G57" t="s">
         <v>3</v>
@@ -3203,13 +3378,16 @@
       <c r="M57" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="N57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
         <v>69</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>3</v>
@@ -3244,16 +3422,19 @@
       <c r="M58" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
         <v>70</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="s">
         <v>3</v>
@@ -3285,8 +3466,11 @@
       <c r="M59" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="N59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -3303,31 +3487,34 @@
         <v>3</v>
       </c>
       <c r="F60" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G60" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H60" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I60" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J60" t="s">
         <v>3</v>
       </c>
       <c r="K60" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L60" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M60" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" t="s">
         <v>72</v>
       </c>
@@ -3341,10 +3528,10 @@
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F61" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G61" t="s">
         <v>3</v>
@@ -3367,13 +3554,16 @@
       <c r="M61" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="N61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" t="s">
         <v>73</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
         <v>3</v>
@@ -3385,10 +3575,10 @@
         <v>3</v>
       </c>
       <c r="F62" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G62" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H62" t="s">
         <v>3</v>
@@ -3403,13 +3593,16 @@
         <v>3</v>
       </c>
       <c r="L62" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M62" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -3417,22 +3610,22 @@
         <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E63" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F63" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G63" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H63" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I63" t="s">
         <v>3</v>
@@ -3449,13 +3642,16 @@
       <c r="M63" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="N63" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" t="s">
         <v>75</v>
       </c>
       <c r="B64" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>3</v>
@@ -3476,22 +3672,25 @@
         <v>3</v>
       </c>
       <c r="I64" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J64" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K64" t="s">
         <v>3</v>
       </c>
       <c r="L64" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M64" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" t="s">
         <v>76</v>
       </c>
@@ -3511,10 +3710,10 @@
         <v>3</v>
       </c>
       <c r="G65" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H65" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I65" t="s">
         <v>3</v>
@@ -3531,8 +3730,11 @@
       <c r="M65" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="N65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -3549,31 +3751,34 @@
         <v>3</v>
       </c>
       <c r="F66" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G66" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H66" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I66" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J66" t="s">
         <v>3</v>
       </c>
       <c r="K66" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L66" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M66" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" t="s">
         <v>78</v>
       </c>
@@ -3587,10 +3792,10 @@
         <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F67" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G67" t="s">
         <v>3</v>
@@ -3608,21 +3813,24 @@
         <v>3</v>
       </c>
       <c r="L67" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M67" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" t="s">
         <v>79</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="s">
         <v>3</v>
@@ -3649,21 +3857,24 @@
         <v>3</v>
       </c>
       <c r="L68" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M68" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" t="s">
         <v>80</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="s">
         <v>3</v>
@@ -3695,8 +3906,11 @@
       <c r="M69" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="1:13">
+      <c r="N69" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -3716,10 +3930,10 @@
         <v>3</v>
       </c>
       <c r="G70" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H70" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I70" t="s">
         <v>3</v>
@@ -3736,16 +3950,19 @@
       <c r="M70" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="1:13">
+      <c r="N70" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" t="s">
         <v>82</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="s">
         <v>3</v>
@@ -3757,10 +3974,10 @@
         <v>3</v>
       </c>
       <c r="G71" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H71" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I71" t="s">
         <v>3</v>
@@ -3777,16 +3994,19 @@
       <c r="M71" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="72" spans="1:13">
+      <c r="N71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" t="s">
         <v>83</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C72" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="s">
         <v>3</v>
@@ -3818,16 +4038,19 @@
       <c r="M72" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="1:13">
+      <c r="N72" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" t="s">
         <v>84</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="s">
         <v>3</v>
@@ -3859,16 +4082,19 @@
       <c r="M73" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="1:13">
+      <c r="N73" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" t="s">
         <v>85</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="s">
         <v>3</v>
@@ -3880,10 +4106,10 @@
         <v>3</v>
       </c>
       <c r="G74" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H74" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I74" t="s">
         <v>3</v>
@@ -3900,16 +4126,19 @@
       <c r="M74" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="75" spans="1:13">
+      <c r="N74" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" t="s">
         <v>86</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="s">
         <v>3</v>
@@ -3936,13 +4165,16 @@
         <v>3</v>
       </c>
       <c r="L75" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M75" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -3950,7 +4182,7 @@
         <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="s">
         <v>3</v>
@@ -3962,10 +4194,10 @@
         <v>3</v>
       </c>
       <c r="G76" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H76" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I76" t="s">
         <v>3</v>
@@ -3977,13 +4209,16 @@
         <v>3</v>
       </c>
       <c r="L76" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M76" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" t="s">
         <v>88</v>
       </c>
@@ -4003,10 +4238,10 @@
         <v>3</v>
       </c>
       <c r="G77" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H77" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I77" t="s">
         <v>3</v>
@@ -4023,8 +4258,11 @@
       <c r="M77" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="78" spans="1:13">
+      <c r="N77" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" t="s">
         <v>89</v>
       </c>
@@ -4044,10 +4282,10 @@
         <v>3</v>
       </c>
       <c r="G78" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H78" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I78" t="s">
         <v>3</v>
@@ -4064,8 +4302,11 @@
       <c r="M78" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="1:13">
+      <c r="N78" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" t="s">
         <v>90</v>
       </c>
@@ -4094,27 +4335,30 @@
         <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K79" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L79" t="s">
         <v>3</v>
       </c>
       <c r="M79" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" t="s">
         <v>91</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="s">
         <v>3</v>
@@ -4144,6 +4388,9 @@
         <v>3</v>
       </c>
       <c r="M80" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4152,10 +4399,10 @@
         <v>92</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="s">
         <v>3</v>
@@ -4167,10 +4414,10 @@
         <v>3</v>
       </c>
       <c r="G81" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H81" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I81" t="s">
         <v>3</v>
@@ -4185,6 +4432,9 @@
         <v>3</v>
       </c>
       <c r="M81" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4193,10 +4443,10 @@
         <v>93</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="s">
         <v>3</v>
@@ -4208,10 +4458,10 @@
         <v>3</v>
       </c>
       <c r="G82" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H82" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I82" t="s">
         <v>3</v>
@@ -4226,6 +4476,9 @@
         <v>3</v>
       </c>
       <c r="M82" t="s">
+        <v>3</v>
+      </c>
+      <c r="N82" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4237,22 +4490,22 @@
         <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E83" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F83" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G83" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H83" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I83" t="s">
         <v>3</v>
@@ -4267,6 +4520,9 @@
         <v>3</v>
       </c>
       <c r="M83" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4278,10 +4534,10 @@
         <v>3</v>
       </c>
       <c r="C84" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E84" t="s">
         <v>3</v>
@@ -4290,10 +4546,10 @@
         <v>3</v>
       </c>
       <c r="G84" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H84" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I84" t="s">
         <v>3</v>
@@ -4308,6 +4564,9 @@
         <v>3</v>
       </c>
       <c r="M84" t="s">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4319,10 +4578,10 @@
         <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E85" t="s">
         <v>3</v>
@@ -4331,10 +4590,10 @@
         <v>3</v>
       </c>
       <c r="G85" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H85" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I85" t="s">
         <v>3</v>
@@ -4349,6 +4608,9 @@
         <v>3</v>
       </c>
       <c r="M85" t="s">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4357,16 +4619,16 @@
         <v>97</v>
       </c>
       <c r="B86" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F86" t="s">
         <v>3</v>
@@ -4384,12 +4646,15 @@
         <v>3</v>
       </c>
       <c r="K86" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L86" t="s">
         <v>5</v>
       </c>
       <c r="M86" t="s">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4398,7 +4663,7 @@
         <v>98</v>
       </c>
       <c r="B87" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
         <v>3</v>
@@ -4425,12 +4690,15 @@
         <v>3</v>
       </c>
       <c r="K87" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L87" t="s">
         <v>5</v>
       </c>
       <c r="M87" t="s">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4451,10 +4719,10 @@
         <v>3</v>
       </c>
       <c r="F88" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G88" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H88" t="s">
         <v>3</v>
@@ -4463,15 +4731,18 @@
         <v>3</v>
       </c>
       <c r="J88" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K88" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L88" t="s">
         <v>3</v>
       </c>
       <c r="M88" t="s">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4495,10 +4766,10 @@
         <v>3</v>
       </c>
       <c r="G89" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H89" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I89" t="s">
         <v>3</v>
@@ -4513,6 +4784,9 @@
         <v>3</v>
       </c>
       <c r="M89" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4524,7 +4798,7 @@
         <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="s">
         <v>5</v>
@@ -4536,10 +4810,10 @@
         <v>5</v>
       </c>
       <c r="G90" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H90" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I90" t="s">
         <v>5</v>
@@ -4554,6 +4828,9 @@
         <v>5</v>
       </c>
       <c r="M90" t="s">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4565,22 +4842,22 @@
         <v>3</v>
       </c>
       <c r="C91" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E91" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F91" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G91" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H91" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I91" t="s">
         <v>3</v>
@@ -4595,6 +4872,9 @@
         <v>3</v>
       </c>
       <c r="M91" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4606,22 +4886,22 @@
         <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E92" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F92" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G92" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H92" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I92" t="s">
         <v>3</v>
@@ -4638,10 +4918,13 @@
       <c r="M92" t="s">
         <v>3</v>
       </c>
+      <c r="N92" t="s">
+        <v>3</v>
+      </c>
       <c r="P92" s="3"/>
     </row>
     <row r="93" spans="1:16">
-      <c r="A93" s="4" t="s">
+      <c r="A93" t="s">
         <v>104</v>
       </c>
       <c r="B93" t="s">
@@ -4657,10 +4940,10 @@
         <v>3</v>
       </c>
       <c r="F93" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G93" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H93" t="s">
         <v>3</v>
@@ -4669,21 +4952,24 @@
         <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K93" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L93" t="s">
         <v>3</v>
       </c>
       <c r="M93" t="s">
+        <v>3</v>
+      </c>
+      <c r="N93" t="s">
         <v>5</v>
       </c>
       <c r="P93" s="3"/>
     </row>
     <row r="94" spans="1:16">
-      <c r="A94" s="4" t="s">
+      <c r="A94" t="s">
         <v>105</v>
       </c>
       <c r="B94" t="s">
@@ -4705,10 +4991,10 @@
         <v>3</v>
       </c>
       <c r="H94" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I94" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J94" t="s">
         <v>3</v>
@@ -4717,25 +5003,28 @@
         <v>3</v>
       </c>
       <c r="L94" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M94" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
         <v>3</v>
       </c>
       <c r="P94" s="3"/>
     </row>
     <row r="95" spans="1:16">
-      <c r="A95" s="4" t="s">
+      <c r="A95" t="s">
         <v>106</v>
       </c>
       <c r="B95" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E95" t="s">
         <v>3</v>
@@ -4759,15 +5048,18 @@
         <v>3</v>
       </c>
       <c r="L95" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M95" t="s">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
         <v>3</v>
       </c>
       <c r="P95" s="3"/>
     </row>
     <row r="96" spans="1:16">
-      <c r="A96" s="4" t="s">
+      <c r="A96" t="s">
         <v>107</v>
       </c>
       <c r="B96" t="s">
@@ -4783,10 +5075,10 @@
         <v>3</v>
       </c>
       <c r="F96" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G96" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H96" t="s">
         <v>3</v>
@@ -4804,550 +5096,592 @@
         <v>3</v>
       </c>
       <c r="M96" t="s">
+        <v>3</v>
+      </c>
+      <c r="N96" t="s">
         <v>5</v>
       </c>
       <c r="P96" s="3"/>
     </row>
     <row r="97" spans="1:16">
-      <c r="A97" s="4" t="s">
+      <c r="A97" t="s">
         <v>108</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C97" t="s">
-        <v>3</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I97" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J97" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K97" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L97" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M97" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" t="s">
+        <v>3</v>
+      </c>
+      <c r="E97" t="s">
+        <v>3</v>
+      </c>
+      <c r="F97" t="s">
+        <v>3</v>
+      </c>
+      <c r="G97" t="s">
+        <v>3</v>
+      </c>
+      <c r="H97" t="s">
+        <v>3</v>
+      </c>
+      <c r="I97" t="s">
+        <v>3</v>
+      </c>
+      <c r="J97" t="s">
+        <v>3</v>
+      </c>
+      <c r="K97" t="s">
+        <v>3</v>
+      </c>
+      <c r="L97" t="s">
+        <v>3</v>
+      </c>
+      <c r="M97" t="s">
+        <v>3</v>
+      </c>
+      <c r="N97" t="s">
         <v>3</v>
       </c>
       <c r="P97" s="3"/>
     </row>
     <row r="98" spans="1:16">
-      <c r="A98" s="4" t="s">
+      <c r="A98" t="s">
         <v>109</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C98" t="s">
-        <v>3</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H98" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I98" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J98" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K98" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L98" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M98" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" t="s">
+        <v>3</v>
+      </c>
+      <c r="E98" t="s">
+        <v>3</v>
+      </c>
+      <c r="F98" t="s">
+        <v>3</v>
+      </c>
+      <c r="G98" t="s">
+        <v>3</v>
+      </c>
+      <c r="H98" t="s">
+        <v>3</v>
+      </c>
+      <c r="I98" t="s">
+        <v>3</v>
+      </c>
+      <c r="J98" t="s">
+        <v>3</v>
+      </c>
+      <c r="K98" t="s">
+        <v>3</v>
+      </c>
+      <c r="L98" t="s">
+        <v>3</v>
+      </c>
+      <c r="M98" t="s">
+        <v>3</v>
+      </c>
+      <c r="N98" t="s">
         <v>3</v>
       </c>
       <c r="P98" s="3"/>
     </row>
     <row r="99" spans="1:16">
-      <c r="A99" s="4" t="s">
+      <c r="A99" t="s">
         <v>110</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H99" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I99" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J99" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K99" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L99" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M99" s="4" t="s">
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" t="s">
+        <v>3</v>
+      </c>
+      <c r="E99" t="s">
+        <v>3</v>
+      </c>
+      <c r="F99" t="s">
+        <v>3</v>
+      </c>
+      <c r="G99" t="s">
+        <v>3</v>
+      </c>
+      <c r="H99" t="s">
+        <v>3</v>
+      </c>
+      <c r="I99" t="s">
+        <v>3</v>
+      </c>
+      <c r="J99" t="s">
+        <v>3</v>
+      </c>
+      <c r="K99" t="s">
+        <v>3</v>
+      </c>
+      <c r="L99" t="s">
+        <v>3</v>
+      </c>
+      <c r="M99" t="s">
+        <v>3</v>
+      </c>
+      <c r="N99" t="s">
         <v>3</v>
       </c>
       <c r="P99" s="3"/>
     </row>
     <row r="100" spans="1:16">
-      <c r="A100" s="4" t="s">
+      <c r="A100" t="s">
         <v>111</v>
       </c>
-      <c r="B100" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" s="4" t="s">
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" t="s">
         <v>3</v>
       </c>
       <c r="P100" s="3"/>
     </row>
     <row r="101" spans="1:16">
-      <c r="A101" s="4" t="s">
+      <c r="A101" t="s">
         <v>112</v>
       </c>
-      <c r="B101" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K101" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L101" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M101" s="4" t="s">
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" t="s">
+        <v>3</v>
+      </c>
+      <c r="K101" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" t="s">
         <v>3</v>
       </c>
       <c r="P101" s="3"/>
     </row>
     <row r="102" spans="1:16">
-      <c r="A102" s="4" t="s">
+      <c r="A102" t="s">
         <v>113</v>
       </c>
-      <c r="B102" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" s="4" t="s">
+      <c r="B102" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" t="s">
+        <v>3</v>
+      </c>
+      <c r="K102" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:16">
-      <c r="A103" s="4" t="s">
+      <c r="A103" t="s">
         <v>114</v>
       </c>
-      <c r="B103" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I103" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J103" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K103" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L103" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M103" s="4" t="s">
+      <c r="B103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103" t="s">
+        <v>3</v>
+      </c>
+      <c r="E103" t="s">
+        <v>3</v>
+      </c>
+      <c r="F103" t="s">
+        <v>3</v>
+      </c>
+      <c r="G103" t="s">
+        <v>3</v>
+      </c>
+      <c r="H103" t="s">
+        <v>3</v>
+      </c>
+      <c r="I103" t="s">
+        <v>3</v>
+      </c>
+      <c r="J103" t="s">
+        <v>3</v>
+      </c>
+      <c r="K103" t="s">
+        <v>3</v>
+      </c>
+      <c r="L103" t="s">
+        <v>3</v>
+      </c>
+      <c r="M103" t="s">
+        <v>3</v>
+      </c>
+      <c r="N103" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:16">
-      <c r="A104" s="4" t="s">
+      <c r="A104" t="s">
         <v>115</v>
       </c>
-      <c r="B104" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G104" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H104" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I104" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J104" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K104" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L104" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M104" s="4" t="s">
+      <c r="B104" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" t="s">
+        <v>3</v>
+      </c>
+      <c r="F104" t="s">
+        <v>3</v>
+      </c>
+      <c r="G104" t="s">
+        <v>3</v>
+      </c>
+      <c r="H104" t="s">
+        <v>3</v>
+      </c>
+      <c r="I104" t="s">
+        <v>3</v>
+      </c>
+      <c r="J104" t="s">
+        <v>3</v>
+      </c>
+      <c r="K104" t="s">
+        <v>3</v>
+      </c>
+      <c r="L104" t="s">
+        <v>3</v>
+      </c>
+      <c r="M104" t="s">
+        <v>3</v>
+      </c>
+      <c r="N104" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:16">
-      <c r="A105" s="4" t="s">
+      <c r="A105" t="s">
         <v>116</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H105" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I105" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J105" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K105" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L105" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M105" s="4" t="s">
+      <c r="B105" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" t="s">
+        <v>3</v>
+      </c>
+      <c r="E105" t="s">
+        <v>3</v>
+      </c>
+      <c r="F105" t="s">
+        <v>3</v>
+      </c>
+      <c r="G105" t="s">
+        <v>3</v>
+      </c>
+      <c r="H105" t="s">
+        <v>3</v>
+      </c>
+      <c r="I105" t="s">
+        <v>3</v>
+      </c>
+      <c r="J105" t="s">
+        <v>3</v>
+      </c>
+      <c r="K105" t="s">
+        <v>3</v>
+      </c>
+      <c r="L105" t="s">
+        <v>3</v>
+      </c>
+      <c r="M105" t="s">
+        <v>3</v>
+      </c>
+      <c r="N105" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:16">
-      <c r="A106" s="4" t="s">
+      <c r="A106" t="s">
         <v>117</v>
       </c>
-      <c r="B106" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G106" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H106" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I106" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J106" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K106" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L106" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M106" s="4" t="s">
+      <c r="B106" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" t="s">
+        <v>3</v>
+      </c>
+      <c r="E106" t="s">
+        <v>3</v>
+      </c>
+      <c r="F106" t="s">
+        <v>3</v>
+      </c>
+      <c r="G106" t="s">
+        <v>3</v>
+      </c>
+      <c r="H106" t="s">
+        <v>3</v>
+      </c>
+      <c r="I106" t="s">
+        <v>3</v>
+      </c>
+      <c r="J106" t="s">
+        <v>3</v>
+      </c>
+      <c r="K106" t="s">
+        <v>3</v>
+      </c>
+      <c r="L106" t="s">
+        <v>3</v>
+      </c>
+      <c r="M106" t="s">
+        <v>3</v>
+      </c>
+      <c r="N106" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:16">
-      <c r="A107" s="4" t="s">
+      <c r="A107" t="s">
         <v>118</v>
       </c>
-      <c r="B107" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H107" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I107" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J107" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K107" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L107" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M107" s="4" t="s">
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" t="s">
+        <v>3</v>
+      </c>
+      <c r="E107" t="s">
+        <v>3</v>
+      </c>
+      <c r="F107" t="s">
+        <v>3</v>
+      </c>
+      <c r="G107" t="s">
+        <v>3</v>
+      </c>
+      <c r="H107" t="s">
+        <v>3</v>
+      </c>
+      <c r="I107" t="s">
+        <v>3</v>
+      </c>
+      <c r="J107" t="s">
+        <v>3</v>
+      </c>
+      <c r="K107" t="s">
+        <v>3</v>
+      </c>
+      <c r="L107" t="s">
+        <v>3</v>
+      </c>
+      <c r="M107" t="s">
+        <v>3</v>
+      </c>
+      <c r="N107" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:16">
-      <c r="A108" s="4" t="s">
+      <c r="A108" t="s">
         <v>119</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G108" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H108" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I108" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J108" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K108" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L108" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M108" s="4" t="s">
+      <c r="B108" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" t="s">
+        <v>3</v>
+      </c>
+      <c r="E108" t="s">
+        <v>3</v>
+      </c>
+      <c r="F108" t="s">
+        <v>3</v>
+      </c>
+      <c r="G108" t="s">
+        <v>3</v>
+      </c>
+      <c r="H108" t="s">
+        <v>3</v>
+      </c>
+      <c r="I108" t="s">
+        <v>3</v>
+      </c>
+      <c r="J108" t="s">
+        <v>3</v>
+      </c>
+      <c r="K108" t="s">
+        <v>3</v>
+      </c>
+      <c r="L108" t="s">
+        <v>3</v>
+      </c>
+      <c r="M108" t="s">
+        <v>3</v>
+      </c>
+      <c r="N108" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:16">
-      <c r="A109" s="4" t="s">
+      <c r="A109" t="s">
         <v>120</v>
       </c>
-      <c r="B109" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G109" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H109" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I109" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J109" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K109" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L109" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M109" s="4" t="s">
+      <c r="B109" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" t="s">
+        <v>3</v>
+      </c>
+      <c r="E109" t="s">
+        <v>3</v>
+      </c>
+      <c r="F109" t="s">
+        <v>3</v>
+      </c>
+      <c r="G109" t="s">
+        <v>3</v>
+      </c>
+      <c r="H109" t="s">
+        <v>3</v>
+      </c>
+      <c r="I109" t="s">
+        <v>3</v>
+      </c>
+      <c r="J109" t="s">
+        <v>3</v>
+      </c>
+      <c r="K109" t="s">
+        <v>3</v>
+      </c>
+      <c r="L109" t="s">
+        <v>3</v>
+      </c>
+      <c r="M109" t="s">
+        <v>3</v>
+      </c>
+      <c r="N109" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:16">
-      <c r="A110" s="4" t="s">
+      <c r="A110" t="s">
         <v>121</v>
       </c>
       <c r="B110" t="s">
@@ -5386,9 +5720,12 @@
       <c r="M110" t="s">
         <v>3</v>
       </c>
+      <c r="N110" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="111" spans="1:16">
-      <c r="A111" s="4" t="s">
+      <c r="A111" t="s">
         <v>122</v>
       </c>
       <c r="B111" t="s">
@@ -5404,10 +5741,10 @@
         <v>3</v>
       </c>
       <c r="F111" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G111" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H111" t="s">
         <v>3</v>
@@ -5419,17 +5756,20 @@
         <v>3</v>
       </c>
       <c r="K111" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L111" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M111" t="s">
         <v>3</v>
       </c>
+      <c r="N111" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="112" spans="1:16">
-      <c r="A112" s="4" t="s">
+      <c r="A112" t="s">
         <v>123</v>
       </c>
       <c r="B112" t="s">
@@ -5445,32 +5785,35 @@
         <v>3</v>
       </c>
       <c r="F112" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G112" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H112" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I112" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J112" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K112" t="s">
         <v>5</v>
       </c>
       <c r="L112" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M112" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13">
-      <c r="A113" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N112" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="A113" t="s">
         <v>124</v>
       </c>
       <c r="B113" t="s">
@@ -5486,10 +5829,10 @@
         <v>3</v>
       </c>
       <c r="F113" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G113" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H113" t="s">
         <v>3</v>
@@ -5498,10 +5841,10 @@
         <v>3</v>
       </c>
       <c r="J113" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K113" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L113" t="s">
         <v>3</v>
@@ -5509,16 +5852,19 @@
       <c r="M113" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="114" spans="1:13">
-      <c r="A114" s="4" t="s">
+      <c r="N113" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="A114" t="s">
         <v>125</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C114" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D114" t="s">
         <v>3</v>
@@ -5550,9 +5896,12 @@
       <c r="M114" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="115" spans="1:13">
-      <c r="A115" s="4" t="s">
+      <c r="N114" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="A115" t="s">
         <v>126</v>
       </c>
       <c r="B115" t="s">
@@ -5591,25 +5940,28 @@
       <c r="M115" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="116" spans="1:13">
-      <c r="A116" s="4" t="s">
+      <c r="N115" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="A116" t="s">
         <v>127</v>
       </c>
       <c r="B116" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D116" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E116" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F116" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G116" t="s">
         <v>3</v>
@@ -5627,14 +5979,17 @@
         <v>3</v>
       </c>
       <c r="L116" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M116" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13">
-      <c r="A117" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N116" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="A117" t="s">
         <v>128</v>
       </c>
       <c r="B117" t="s">
@@ -5650,10 +6005,10 @@
         <v>3</v>
       </c>
       <c r="F117" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G117" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H117" t="s">
         <v>3</v>
@@ -5668,14 +6023,17 @@
         <v>3</v>
       </c>
       <c r="L117" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M117" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13">
-      <c r="A118" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N117" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
+      <c r="A118" t="s">
         <v>129</v>
       </c>
       <c r="B118" t="s">
@@ -5691,10 +6049,10 @@
         <v>3</v>
       </c>
       <c r="F118" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G118" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H118" t="s">
         <v>3</v>
@@ -5709,21 +6067,24 @@
         <v>3</v>
       </c>
       <c r="L118" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M118" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13">
-      <c r="A119" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N118" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
+      <c r="A119" t="s">
         <v>130</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C119" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D119" t="s">
         <v>3</v>
@@ -5755,16 +6116,19 @@
       <c r="M119" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="120" spans="1:13">
-      <c r="A120" s="4" t="s">
+      <c r="N119" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
+      <c r="A120" t="s">
         <v>131</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C120" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D120" t="s">
         <v>3</v>
@@ -5788,24 +6152,27 @@
         <v>3</v>
       </c>
       <c r="K120" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L120" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M120" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="121" spans="1:13">
-      <c r="A121" s="4" t="s">
+      <c r="N120" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
+      <c r="A121" t="s">
         <v>132</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C121" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D121" t="s">
         <v>3</v>
@@ -5837,9 +6204,12 @@
       <c r="M121" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="122" spans="1:13">
-      <c r="A122" s="4" t="s">
+      <c r="N121" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
+      <c r="A122" t="s">
         <v>133</v>
       </c>
       <c r="B122" t="s">
@@ -5878,9 +6248,12 @@
       <c r="M122" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="123" spans="1:13">
-      <c r="A123" s="4" t="s">
+      <c r="N122" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
+      <c r="A123" t="s">
         <v>134</v>
       </c>
       <c r="B123" t="s">
@@ -5902,473 +6275,26 @@
         <v>3</v>
       </c>
       <c r="H123" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I123" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J123" t="s">
         <v>3</v>
       </c>
       <c r="K123" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L123" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M123" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="124" spans="1:13">
-      <c r="A124" s="4"/>
-    </row>
-    <row r="125" spans="1:13">
-      <c r="A125" s="4"/>
-    </row>
-    <row r="126" spans="1:13">
-      <c r="A126" s="4"/>
-    </row>
-    <row r="127" spans="1:13">
-      <c r="A127" s="4"/>
-    </row>
-    <row r="128" spans="1:13">
-      <c r="A128" s="4"/>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="4"/>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" s="4"/>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="4"/>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" s="4"/>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" s="4"/>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" s="4"/>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" s="4"/>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" s="4"/>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" s="4"/>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" s="4"/>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" s="4"/>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" s="4"/>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" s="4"/>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" s="4"/>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" s="4"/>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" s="4"/>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" s="4"/>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" s="4"/>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" s="4"/>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" s="4"/>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" s="4"/>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" s="4"/>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" s="4"/>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" s="4"/>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" s="4"/>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" s="4"/>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" s="4"/>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" s="4"/>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" s="4"/>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" s="4"/>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" s="4"/>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" s="4"/>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" s="4"/>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" s="4"/>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" s="4"/>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" s="4"/>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" s="4"/>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" s="4"/>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" s="4"/>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" s="4"/>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" s="4"/>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" s="4"/>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" s="4"/>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" s="4"/>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" s="4"/>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" s="4"/>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" s="4"/>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" s="4"/>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" s="4"/>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" s="4"/>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" s="4"/>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" s="4"/>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" s="4"/>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" s="4"/>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" s="4"/>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" s="4"/>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" s="4"/>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" s="4"/>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" s="4"/>
-    </row>
-    <row r="188" spans="1:1">
-      <c r="A188" s="4"/>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" s="4"/>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" s="4"/>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" s="4"/>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" s="4"/>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" s="4"/>
-    </row>
-    <row r="194" spans="1:1">
-      <c r="A194" s="4"/>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" s="4"/>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" s="4"/>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" s="4"/>
-    </row>
-    <row r="198" spans="1:1">
-      <c r="A198" s="4"/>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" s="4"/>
-    </row>
-    <row r="200" spans="1:1">
-      <c r="A200" s="4"/>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" s="4"/>
-    </row>
-    <row r="202" spans="1:1">
-      <c r="A202" s="4"/>
-    </row>
-    <row r="203" spans="1:1">
-      <c r="A203" s="4"/>
-    </row>
-    <row r="204" spans="1:1">
-      <c r="A204" s="4"/>
-    </row>
-    <row r="205" spans="1:1">
-      <c r="A205" s="4"/>
-    </row>
-    <row r="206" spans="1:1">
-      <c r="A206" s="4"/>
-    </row>
-    <row r="207" spans="1:1">
-      <c r="A207" s="4"/>
-    </row>
-    <row r="208" spans="1:1">
-      <c r="A208" s="4"/>
-    </row>
-    <row r="209" spans="1:1">
-      <c r="A209" s="4"/>
-    </row>
-    <row r="210" spans="1:1">
-      <c r="A210" s="4"/>
-    </row>
-    <row r="211" spans="1:1">
-      <c r="A211" s="4"/>
-    </row>
-    <row r="212" spans="1:1">
-      <c r="A212" s="4"/>
-    </row>
-    <row r="213" spans="1:1">
-      <c r="A213" s="4"/>
-    </row>
-    <row r="214" spans="1:1">
-      <c r="A214" s="4"/>
-    </row>
-    <row r="215" spans="1:1">
-      <c r="A215" s="4"/>
-    </row>
-    <row r="216" spans="1:1">
-      <c r="A216" s="4"/>
-    </row>
-    <row r="217" spans="1:1">
-      <c r="A217" s="4"/>
-    </row>
-    <row r="218" spans="1:1">
-      <c r="A218" s="4"/>
-    </row>
-    <row r="219" spans="1:1">
-      <c r="A219" s="4"/>
-    </row>
-    <row r="220" spans="1:1">
-      <c r="A220" s="4"/>
-    </row>
-    <row r="221" spans="1:1">
-      <c r="A221" s="4"/>
-    </row>
-    <row r="222" spans="1:1">
-      <c r="A222" s="4"/>
-    </row>
-    <row r="223" spans="1:1">
-      <c r="A223" s="4"/>
-    </row>
-    <row r="224" spans="1:1">
-      <c r="A224" s="4"/>
-    </row>
-    <row r="225" spans="1:1">
-      <c r="A225" s="4"/>
-    </row>
-    <row r="226" spans="1:1">
-      <c r="A226" s="4"/>
-    </row>
-    <row r="227" spans="1:1">
-      <c r="A227" s="4"/>
-    </row>
-    <row r="228" spans="1:1">
-      <c r="A228" s="4"/>
-    </row>
-    <row r="229" spans="1:1">
-      <c r="A229" s="4"/>
-    </row>
-    <row r="230" spans="1:1">
-      <c r="A230" s="4"/>
-    </row>
-    <row r="231" spans="1:1">
-      <c r="A231" s="4"/>
-    </row>
-    <row r="232" spans="1:1">
-      <c r="A232" s="4"/>
-    </row>
-    <row r="233" spans="1:1">
-      <c r="A233" s="4"/>
-    </row>
-    <row r="234" spans="1:1">
-      <c r="A234" s="4"/>
-    </row>
-    <row r="235" spans="1:1">
-      <c r="A235" s="4"/>
-    </row>
-    <row r="236" spans="1:1">
-      <c r="A236" s="4"/>
-    </row>
-    <row r="237" spans="1:1">
-      <c r="A237" s="4"/>
-    </row>
-    <row r="238" spans="1:1">
-      <c r="A238" s="4"/>
-    </row>
-    <row r="239" spans="1:1">
-      <c r="A239" s="4"/>
-    </row>
-    <row r="240" spans="1:1">
-      <c r="A240" s="4"/>
-    </row>
-    <row r="241" spans="1:1">
-      <c r="A241" s="4"/>
-    </row>
-    <row r="242" spans="1:1">
-      <c r="A242" s="4"/>
-    </row>
-    <row r="243" spans="1:1">
-      <c r="A243" s="4"/>
-    </row>
-    <row r="244" spans="1:1">
-      <c r="A244" s="4"/>
-    </row>
-    <row r="245" spans="1:1">
-      <c r="A245" s="4"/>
-    </row>
-    <row r="246" spans="1:1">
-      <c r="A246" s="4"/>
-    </row>
-    <row r="247" spans="1:1">
-      <c r="A247" s="4"/>
-    </row>
-    <row r="248" spans="1:1">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1">
-      <c r="A249" s="4"/>
-    </row>
-    <row r="250" spans="1:1">
-      <c r="A250" s="4"/>
-    </row>
-    <row r="251" spans="1:1">
-      <c r="A251" s="4"/>
-    </row>
-    <row r="252" spans="1:1">
-      <c r="A252" s="4"/>
-    </row>
-    <row r="253" spans="1:1">
-      <c r="A253" s="4"/>
-    </row>
-    <row r="254" spans="1:1">
-      <c r="A254" s="4"/>
-    </row>
-    <row r="255" spans="1:1">
-      <c r="A255" s="4"/>
-    </row>
-    <row r="256" spans="1:1">
-      <c r="A256" s="4"/>
-    </row>
-    <row r="257" spans="1:1">
-      <c r="A257" s="4"/>
-    </row>
-    <row r="258" spans="1:1">
-      <c r="A258" s="4"/>
-    </row>
-    <row r="259" spans="1:1">
-      <c r="A259" s="4"/>
-    </row>
-    <row r="260" spans="1:1">
-      <c r="A260" s="4"/>
-    </row>
-    <row r="261" spans="1:1">
-      <c r="A261" s="4"/>
-    </row>
-    <row r="262" spans="1:1">
-      <c r="A262" s="4"/>
-    </row>
-    <row r="263" spans="1:1">
-      <c r="A263" s="4"/>
-    </row>
-    <row r="264" spans="1:1">
-      <c r="A264" s="4"/>
-    </row>
-    <row r="265" spans="1:1">
-      <c r="A265" s="4"/>
-    </row>
-    <row r="266" spans="1:1">
-      <c r="A266" s="4"/>
-    </row>
-    <row r="267" spans="1:1">
-      <c r="A267" s="4"/>
-    </row>
-    <row r="268" spans="1:1">
-      <c r="A268" s="4"/>
-    </row>
-    <row r="269" spans="1:1">
-      <c r="A269" s="4"/>
-    </row>
-    <row r="270" spans="1:1">
-      <c r="A270" s="4"/>
-    </row>
-    <row r="271" spans="1:1">
-      <c r="A271" s="4"/>
-    </row>
-    <row r="272" spans="1:1">
-      <c r="A272" s="4"/>
-    </row>
-    <row r="273" spans="1:1">
-      <c r="A273" s="4"/>
+      <c r="N123" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
